--- a/database/Export/Tabelas Finais/POF 2007 TBL_4/Tabela4.xlsx
+++ b/database/Export/Tabelas Finais/POF 2007 TBL_4/Tabela4.xlsx
@@ -386,77 +386,77 @@
         </is>
       </c>
       <c r="B2">
-        <v>32874.2</v>
+        <v>9552.040000000001</v>
       </c>
       <c r="C2">
-        <v>0.8455534360748155</v>
+        <v>0.2456868986476958</v>
       </c>
       <c r="D2">
-        <v>6.517286882308237</v>
+        <v>1.893685169259893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isotônico e Energético</t>
+          <t>Bebida Adoçada</t>
         </is>
       </c>
       <c r="B3">
-        <v>2524.46</v>
+        <v>27247.99</v>
       </c>
       <c r="C3">
-        <v>0.06493133908151161</v>
+        <v>0.7008423496429483</v>
       </c>
       <c r="D3">
-        <v>0.5004724082384318</v>
+        <v>5.401894731925523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bebida Adoçada</t>
+          <t>Bebida Adoçada a Base de Leite</t>
         </is>
       </c>
       <c r="B4">
-        <v>51871.09</v>
+        <v>61301.66</v>
       </c>
       <c r="C4">
-        <v>1.334170211973098</v>
+        <v>1.576732795021326</v>
       </c>
       <c r="D4">
-        <v>10.28340687919493</v>
+        <v>12.15301070692883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bebida Adoçada a Base de Leite</t>
+          <t>Café e Chá</t>
         </is>
       </c>
       <c r="B5">
-        <v>86245.25</v>
+        <v>87208.95</v>
       </c>
       <c r="C5">
-        <v>2.218303942989685</v>
+        <v>2.243091157472327</v>
       </c>
       <c r="D5">
-        <v>17.09805976986191</v>
+        <v>17.28911261277461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Café e Chá</t>
+          <t>Isotônico e Energético</t>
         </is>
       </c>
       <c r="B6">
-        <v>161195.21</v>
+        <v>998.27</v>
       </c>
       <c r="C6">
-        <v>4.146083058882086</v>
+        <v>0.02567638539129184</v>
       </c>
       <c r="D6">
-        <v>31.95683629180092</v>
+        <v>0.1979063209447483</v>
       </c>
     </row>
     <row r="7">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>258906.78</v>
+        <v>206286.16</v>
       </c>
       <c r="C7">
-        <v>6.659310871506115</v>
+        <v>5.305862086459265</v>
       </c>
       <c r="D7">
-        <v>51.32808588603417</v>
+        <v>40.89608521484137</v>
       </c>
     </row>
     <row r="8">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>109657.16</v>
+        <v>100087.04</v>
       </c>
       <c r="C8">
-        <v>2.820478929622799</v>
+        <v>2.574326997419177</v>
       </c>
       <c r="D8">
-        <v>21.73945435688703</v>
+        <v>19.84218484042379</v>
       </c>
     </row>
     <row r="9">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>2427.17</v>
+        <v>3703.45</v>
       </c>
       <c r="C9">
-        <v>0.06242895442133071</v>
+        <v>0.09525600236146509</v>
       </c>
       <c r="D9">
-        <v>0.4811847345983198</v>
+        <v>0.7342063412732307</v>
       </c>
     </row>
     <row r="10">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>47140.27</v>
+        <v>18411.45</v>
       </c>
       <c r="C10">
-        <v>1.212489346539065</v>
+        <v>0.473558742436916</v>
       </c>
       <c r="D10">
-        <v>9.345525162573342</v>
+        <v>3.650056931249247</v>
       </c>
     </row>
     <row r="11">

--- a/database/Export/Tabelas Finais/POF 2007 TBL_4/Tabela4.xlsx
+++ b/database/Export/Tabelas Finais/POF 2007 TBL_4/Tabela4.xlsx
@@ -389,10 +389,10 @@
         <v>9552.040000000001</v>
       </c>
       <c r="C2">
-        <v>0.2456868986476958</v>
+        <v>0.2348919978395535</v>
       </c>
       <c r="D2">
-        <v>1.893685169259893</v>
+        <v>1.85549640235867</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         <v>27247.99</v>
       </c>
       <c r="C3">
-        <v>0.7008423496429483</v>
+        <v>0.6700489956294337</v>
       </c>
       <c r="D3">
-        <v>5.401894731925523</v>
+        <v>5.292958092355665</v>
       </c>
     </row>
     <row r="4">
@@ -421,10 +421,10 @@
         <v>61301.66</v>
       </c>
       <c r="C4">
-        <v>1.576732795021326</v>
+        <v>1.507454887990528</v>
       </c>
       <c r="D4">
-        <v>12.15301070692883</v>
+        <v>11.90792852507049</v>
       </c>
     </row>
     <row r="5">
@@ -437,10 +437,10 @@
         <v>87208.95</v>
       </c>
       <c r="C5">
-        <v>2.243091157472327</v>
+        <v>2.144535041204783</v>
       </c>
       <c r="D5">
-        <v>17.28911261277461</v>
+        <v>16.94045386938048</v>
       </c>
     </row>
     <row r="6">
@@ -453,10 +453,10 @@
         <v>998.27</v>
       </c>
       <c r="C6">
-        <v>0.02567638539129184</v>
+        <v>0.02454822579085631</v>
       </c>
       <c r="D6">
-        <v>0.1979063209447483</v>
+        <v>0.1939152676896861</v>
       </c>
     </row>
     <row r="7">
@@ -469,10 +469,10 @@
         <v>206286.16</v>
       </c>
       <c r="C7">
-        <v>5.305862086459265</v>
+        <v>5.072735064870938</v>
       </c>
       <c r="D7">
-        <v>40.89608521484137</v>
+        <v>40.07135938882007</v>
       </c>
     </row>
     <row r="8">
@@ -485,10 +485,10 @@
         <v>100087.04</v>
       </c>
       <c r="C8">
-        <v>2.574326997419177</v>
+        <v>2.461217162349331</v>
       </c>
       <c r="D8">
-        <v>19.84218484042379</v>
+        <v>19.44203988286568</v>
       </c>
     </row>
     <row r="9">
@@ -501,10 +501,10 @@
         <v>3703.45</v>
       </c>
       <c r="C9">
-        <v>0.09525600236146509</v>
+        <v>0.09107067907995511</v>
       </c>
       <c r="D9">
-        <v>0.7342063412732307</v>
+        <v>0.719400060229565</v>
       </c>
     </row>
     <row r="10">
@@ -517,10 +517,10 @@
         <v>18411.45</v>
       </c>
       <c r="C10">
-        <v>0.473558742436916</v>
+        <v>0.452751692164506</v>
       </c>
       <c r="D10">
-        <v>3.650056931249247</v>
+        <v>3.576448511229698</v>
       </c>
     </row>
     <row r="11">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>504415.42</v>
+        <v>514797.01</v>
       </c>
       <c r="C11">
-        <v>12.97400975811187</v>
+        <v>12.65925374691988</v>
       </c>
       <c r="D11">
         <v>100</v>
